--- a/medicine/Psychotrope/Kirner_Privatbrauerei/Kirner_Privatbrauerei.xlsx
+++ b/medicine/Psychotrope/Kirner_Privatbrauerei/Kirner_Privatbrauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kirner Privatbrauerei est une brasserie à Kirn.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aubergiste de Kirn Jakob Andres commence en 1798 à approvisionner d’autres restaurants avec des bières, brassées à l’origine pour sa propre consommation. Cette date est aujourd’hui considérée comme la date de fondation de la société. Philipp et Carl Andres, descendants de Jakob Andres à la troisième génération, acquièrent l’ancien domaine vinicole et fondent en 1862 le "Ph. und C. Andres Bierbrauerei und Mälzerei". Les armoiries de la famille princière Salm-Kyrburg, qui orne l’avant de la cave, sont toujours la marque de fabrique de la société.
 Dans les bâtiments de l'ancien établissement vinicole se trouvent jusqu’en 1990 environ, les installations de Vitaborn-Werke, un ancien fabricant de jus de fruits, qui possède une brasserie concurrente ; aujourd'hui c'est notamment un restaurant avec un hôtel. Dans le même temps, une licence affiliée à une brasserie pour la production et le remplissage de Coca-Cola et des boissons associées est convertie en un centre de distribution qui est finalement externalisé en périphérie.
@@ -545,7 +559,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pils : la bière Kirner classique et la plus bue (70% de la production)
 Landbier : Zwickelbier, non filtré (c'est-à-dire d'une nature nuageuse), brassé à partir d'orge locale ("SooNahe Produkt"). Introduit en 2011 en tant que bière légère, depuis 2012 également disponible en tant que bière brune.
@@ -592,7 +608,9 @@
           <t>Sponsoring</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Kirner Pils est l'un des sponsors du 1. FSV Mayence 05 jusqu'à la saison de football 2012-2013. La brasserie était également partenaire du Landesgartenschau de Rhénanie-Palatinat à Bingen en 2008.
 </t>
